--- a/1des/fpoo/aula07/correcao/ex7.xlsx
+++ b/1des/fpoo/aula07/correcao/ex7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\fpoo\aula07\correcao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32EDBF0-C9AC-4E1E-B292-A0563E7A0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4522B7-C3D6-425B-AFA1-08079A418D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C4DE1C5-84E6-4D3D-B4EB-46AED354310F}"/>
   </bookViews>
@@ -30,6 +30,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Maior</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0D52D1-5DB9-4DC3-9620-CFF34146017B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,35 +398,35 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(0,9)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:C3" ca="1" si="0">RANDBETWEEN(0,9)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A3" ca="1" si="1">RANDBETWEEN(0,9)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
@@ -427,6 +435,15 @@
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f ca="1">MAX(A1:C3)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
